--- a/Data/ROY Data/rookies_07_08.xlsx
+++ b/Data/ROY Data/rookies_07_08.xlsx
@@ -930,76 +930,76 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>762</v>
+        <v>75</v>
       </c>
       <c r="H2">
-        <v>20829</v>
+        <v>970</v>
       </c>
       <c r="I2">
-        <v>2983</v>
+        <v>99</v>
       </c>
       <c r="J2">
-        <v>6633</v>
+        <v>241</v>
       </c>
       <c r="K2">
-        <v>852</v>
+        <v>10</v>
       </c>
       <c r="L2">
-        <v>2205</v>
+        <v>48</v>
       </c>
       <c r="M2">
-        <v>1380</v>
+        <v>68</v>
       </c>
       <c r="N2">
-        <v>1673</v>
+        <v>87</v>
       </c>
       <c r="O2">
-        <v>334</v>
+        <v>36</v>
       </c>
       <c r="P2">
-        <v>2176</v>
+        <v>137</v>
       </c>
       <c r="Q2">
-        <v>1386</v>
+        <v>52</v>
       </c>
       <c r="R2">
-        <v>341</v>
+        <v>31</v>
       </c>
       <c r="S2">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="T2">
-        <v>852</v>
+        <v>34</v>
       </c>
       <c r="U2">
-        <v>1481</v>
+        <v>83</v>
       </c>
       <c r="V2">
-        <v>8198</v>
+        <v>276</v>
       </c>
       <c r="W2">
-        <v>0.45</v>
+        <v>0.411</v>
       </c>
       <c r="X2">
-        <v>0.386</v>
+        <v>0.208</v>
       </c>
       <c r="Y2">
-        <v>0.825</v>
+        <v>0.782</v>
       </c>
       <c r="Z2">
-        <v>27.3</v>
+        <v>12.9</v>
       </c>
       <c r="AA2">
-        <v>10.8</v>
+        <v>3.7</v>
       </c>
       <c r="AB2">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="AC2">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD2" t="s">
         <v>148</v>
@@ -1022,76 +1022,76 @@
         <v>23</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>177</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>57</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>34</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <v>31</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>19</v>
       </c>
-      <c r="H3">
-        <v>226</v>
-      </c>
-      <c r="I3">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <v>77</v>
-      </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <v>47</v>
-      </c>
-      <c r="M3">
-        <v>32</v>
-      </c>
-      <c r="N3">
-        <v>33</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>22</v>
-      </c>
       <c r="Q3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="U3">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="V3">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="W3">
-        <v>0.273</v>
+        <v>0.263</v>
       </c>
       <c r="X3">
-        <v>0.298</v>
+        <v>0.294</v>
       </c>
       <c r="Y3">
-        <v>0.97</v>
+        <v>0.968</v>
       </c>
       <c r="Z3">
-        <v>11.9</v>
+        <v>14.8</v>
       </c>
       <c r="AA3">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB3">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AC3">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AD3" t="s">
         <v>148</v>
@@ -1203,73 +1203,73 @@
         <v>22</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>39</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>38</v>
-      </c>
-      <c r="H5">
-        <v>361</v>
-      </c>
-      <c r="I5">
-        <v>43</v>
-      </c>
-      <c r="J5">
-        <v>113</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="L5">
-        <v>24</v>
-      </c>
-      <c r="M5">
-        <v>26</v>
-      </c>
-      <c r="N5">
-        <v>35</v>
-      </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
-      <c r="P5">
-        <v>46</v>
-      </c>
-      <c r="Q5">
-        <v>12</v>
-      </c>
       <c r="R5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="V5">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="W5">
-        <v>0.381</v>
+        <v>0.267</v>
       </c>
       <c r="X5">
-        <v>0.292</v>
+        <v>0.25</v>
       </c>
       <c r="Y5">
-        <v>0.743</v>
+        <v>0.667</v>
       </c>
       <c r="Z5">
-        <v>9.5</v>
+        <v>4.3</v>
       </c>
       <c r="AA5">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="AB5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="AC5">
         <v>0.3</v>
@@ -1295,19 +1295,19 @@
         <v>25</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>490</v>
+        <v>24</v>
       </c>
       <c r="H6">
-        <v>7056</v>
+        <v>498</v>
       </c>
       <c r="I6">
-        <v>398</v>
+        <v>28</v>
       </c>
       <c r="J6">
-        <v>776</v>
+        <v>60</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1316,52 +1316,52 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>268</v>
+        <v>29</v>
       </c>
       <c r="N6">
-        <v>405</v>
+        <v>49</v>
       </c>
       <c r="O6">
-        <v>562</v>
+        <v>38</v>
       </c>
       <c r="P6">
-        <v>1353</v>
+        <v>93</v>
       </c>
       <c r="Q6">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="S6">
-        <v>531</v>
+        <v>31</v>
       </c>
       <c r="T6">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="U6">
-        <v>819</v>
+        <v>55</v>
       </c>
       <c r="V6">
-        <v>1064</v>
+        <v>85</v>
       </c>
       <c r="W6">
-        <v>0.513</v>
+        <v>0.467</v>
       </c>
       <c r="Y6">
-        <v>0.662</v>
+        <v>0.592</v>
       </c>
       <c r="Z6">
-        <v>14.4</v>
+        <v>20.8</v>
       </c>
       <c r="AA6">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="AB6">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="AC6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD6" t="s">
         <v>148</v>
@@ -1384,76 +1384,76 @@
         <v>21</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>856</v>
+        <v>33</v>
       </c>
       <c r="H7">
-        <v>19459</v>
+        <v>241</v>
       </c>
       <c r="I7">
-        <v>2933</v>
+        <v>36</v>
       </c>
       <c r="J7">
-        <v>6920</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>1206</v>
+        <v>16</v>
       </c>
       <c r="L7">
-        <v>3209</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>1247</v>
+        <v>7</v>
       </c>
       <c r="N7">
-        <v>1475</v>
+        <v>9</v>
       </c>
       <c r="O7">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>1761</v>
+        <v>14</v>
       </c>
       <c r="Q7">
-        <v>1425</v>
+        <v>15</v>
       </c>
       <c r="R7">
-        <v>487</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>847</v>
+        <v>12</v>
       </c>
       <c r="U7">
-        <v>1218</v>
+        <v>15</v>
       </c>
       <c r="V7">
-        <v>8319</v>
+        <v>95</v>
       </c>
       <c r="W7">
-        <v>0.424</v>
+        <v>0.387</v>
       </c>
       <c r="X7">
-        <v>0.376</v>
+        <v>0.39</v>
       </c>
       <c r="Y7">
-        <v>0.845</v>
+        <v>0.778</v>
       </c>
       <c r="Z7">
-        <v>22.7</v>
+        <v>7.3</v>
       </c>
       <c r="AA7">
-        <v>9.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="AB7">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="AC7">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD7" t="s">
         <v>148</v>
@@ -1476,76 +1476,76 @@
         <v>21</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>814</v>
+        <v>79</v>
       </c>
       <c r="H8">
-        <v>18738</v>
+        <v>1803</v>
       </c>
       <c r="I8">
-        <v>2682</v>
+        <v>182</v>
       </c>
       <c r="J8">
-        <v>6310</v>
+        <v>486</v>
       </c>
       <c r="K8">
-        <v>503</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>1773</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>1225</v>
+        <v>88</v>
       </c>
       <c r="N8">
-        <v>1717</v>
+        <v>110</v>
       </c>
       <c r="O8">
-        <v>611</v>
+        <v>82</v>
       </c>
       <c r="P8">
-        <v>2279</v>
+        <v>292</v>
       </c>
       <c r="Q8">
-        <v>1248</v>
+        <v>111</v>
       </c>
       <c r="R8">
-        <v>1019</v>
+        <v>76</v>
       </c>
       <c r="S8">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="T8">
-        <v>948</v>
+        <v>89</v>
       </c>
       <c r="U8">
-        <v>1761</v>
+        <v>188</v>
       </c>
       <c r="V8">
-        <v>7092</v>
+        <v>459</v>
       </c>
       <c r="W8">
-        <v>0.425</v>
+        <v>0.374</v>
       </c>
       <c r="X8">
-        <v>0.284</v>
+        <v>0.194</v>
       </c>
       <c r="Y8">
-        <v>0.713</v>
+        <v>0.8</v>
       </c>
       <c r="Z8">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AA8">
-        <v>8.699999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="AB8">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="AC8">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD8" t="s">
         <v>148</v>
@@ -1568,76 +1568,76 @@
         <v>23</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>645</v>
+        <v>51</v>
       </c>
       <c r="H9">
-        <v>13439</v>
+        <v>608</v>
       </c>
       <c r="I9">
-        <v>2261</v>
+        <v>93</v>
       </c>
       <c r="J9">
-        <v>5478</v>
+        <v>225</v>
       </c>
       <c r="K9">
-        <v>820</v>
+        <v>36</v>
       </c>
       <c r="L9">
-        <v>2218</v>
+        <v>109</v>
       </c>
       <c r="M9">
-        <v>917</v>
+        <v>42</v>
       </c>
       <c r="N9">
-        <v>1095</v>
+        <v>49</v>
       </c>
       <c r="O9">
-        <v>254</v>
+        <v>13</v>
       </c>
       <c r="P9">
-        <v>1079</v>
+        <v>56</v>
       </c>
       <c r="Q9">
-        <v>1925</v>
+        <v>87</v>
       </c>
       <c r="R9">
-        <v>359</v>
+        <v>13</v>
       </c>
       <c r="S9">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="U9">
-        <v>1217</v>
+        <v>69</v>
       </c>
       <c r="V9">
-        <v>6259</v>
+        <v>264</v>
       </c>
       <c r="W9">
         <v>0.413</v>
       </c>
       <c r="X9">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="Y9">
-        <v>0.837</v>
+        <v>0.857</v>
       </c>
       <c r="Z9">
-        <v>20.8</v>
+        <v>11.9</v>
       </c>
       <c r="AA9">
-        <v>9.699999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="AB9">
+        <v>1.1</v>
+      </c>
+      <c r="AC9">
         <v>1.7</v>
-      </c>
-      <c r="AC9">
-        <v>3</v>
       </c>
       <c r="AD9" t="s">
         <v>148</v>
@@ -1660,76 +1660,76 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>676</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>20287</v>
+        <v>685</v>
       </c>
       <c r="I10">
-        <v>3270</v>
+        <v>106</v>
       </c>
       <c r="J10">
-        <v>7382</v>
+        <v>242</v>
       </c>
       <c r="K10">
-        <v>874</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>2560</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>1049</v>
+        <v>34</v>
       </c>
       <c r="N10">
-        <v>1363</v>
+        <v>54</v>
       </c>
       <c r="O10">
-        <v>766</v>
+        <v>38</v>
       </c>
       <c r="P10">
-        <v>3574</v>
+        <v>127</v>
       </c>
       <c r="Q10">
-        <v>1205</v>
+        <v>33</v>
       </c>
       <c r="R10">
-        <v>470</v>
+        <v>15</v>
       </c>
       <c r="S10">
-        <v>414</v>
+        <v>16</v>
       </c>
       <c r="T10">
-        <v>931</v>
+        <v>27</v>
       </c>
       <c r="U10">
-        <v>1807</v>
+        <v>83</v>
       </c>
       <c r="V10">
-        <v>8463</v>
+        <v>255</v>
       </c>
       <c r="W10">
-        <v>0.443</v>
+        <v>0.438</v>
       </c>
       <c r="X10">
-        <v>0.341</v>
+        <v>0.3</v>
       </c>
       <c r="Y10">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
       <c r="Z10">
-        <v>30</v>
+        <v>19.6</v>
       </c>
       <c r="AA10">
-        <v>12.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB10">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="AC10">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD10" t="s">
         <v>148</v>
@@ -1752,76 +1752,76 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>831</v>
+        <v>53</v>
       </c>
       <c r="H11">
-        <v>26935</v>
+        <v>1381</v>
       </c>
       <c r="I11">
-        <v>4389</v>
+        <v>189</v>
       </c>
       <c r="J11">
-        <v>9995</v>
+        <v>442</v>
       </c>
       <c r="K11">
-        <v>1169</v>
+        <v>30</v>
       </c>
       <c r="L11">
-        <v>3117</v>
+        <v>91</v>
       </c>
       <c r="M11">
-        <v>2385</v>
+        <v>90</v>
       </c>
       <c r="N11">
-        <v>2914</v>
+        <v>123</v>
       </c>
       <c r="O11">
-        <v>368</v>
+        <v>21</v>
       </c>
       <c r="P11">
-        <v>2463</v>
+        <v>139</v>
       </c>
       <c r="Q11">
-        <v>4695</v>
+        <v>222</v>
       </c>
       <c r="R11">
-        <v>1194</v>
+        <v>44</v>
       </c>
       <c r="S11">
-        <v>167</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>1667</v>
+        <v>89</v>
       </c>
       <c r="U11">
-        <v>1643</v>
+        <v>85</v>
       </c>
       <c r="V11">
-        <v>12332</v>
+        <v>498</v>
       </c>
       <c r="W11">
-        <v>0.439</v>
+        <v>0.428</v>
       </c>
       <c r="X11">
-        <v>0.375</v>
+        <v>0.33</v>
       </c>
       <c r="Y11">
-        <v>0.8179999999999999</v>
+        <v>0.732</v>
       </c>
       <c r="Z11">
-        <v>32.4</v>
+        <v>26.1</v>
       </c>
       <c r="AA11">
-        <v>14.8</v>
+        <v>9.4</v>
       </c>
       <c r="AB11">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AC11">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="AD11" t="s">
         <v>148</v>
@@ -1844,76 +1844,76 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>328</v>
+        <v>59</v>
       </c>
       <c r="H12">
-        <v>5993</v>
+        <v>1441</v>
       </c>
       <c r="I12">
-        <v>758</v>
+        <v>196</v>
       </c>
       <c r="J12">
-        <v>2056</v>
+        <v>514</v>
       </c>
       <c r="K12">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="L12">
-        <v>1232</v>
+        <v>238</v>
       </c>
       <c r="M12">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="N12">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="O12">
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <v>177</v>
+      </c>
+      <c r="Q12">
         <v>75</v>
       </c>
-      <c r="P12">
-        <v>703</v>
-      </c>
-      <c r="Q12">
-        <v>243</v>
-      </c>
       <c r="R12">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="S12">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="T12">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="U12">
-        <v>478</v>
+        <v>157</v>
       </c>
       <c r="V12">
-        <v>2114</v>
+        <v>518</v>
       </c>
       <c r="W12">
-        <v>0.369</v>
+        <v>0.381</v>
       </c>
       <c r="X12">
-        <v>0.359</v>
+        <v>0.332</v>
       </c>
       <c r="Y12">
-        <v>0.8129999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z12">
-        <v>18.3</v>
+        <v>24.4</v>
       </c>
       <c r="AA12">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB12">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="AC12">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="AD12" t="s">
         <v>148</v>
@@ -1936,76 +1936,76 @@
         <v>20</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>679</v>
+      </c>
+      <c r="I13">
+        <v>98</v>
+      </c>
+      <c r="J13">
+        <v>233</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>37</v>
+      </c>
+      <c r="M13">
+        <v>72</v>
+      </c>
+      <c r="N13">
+        <v>104</v>
+      </c>
+      <c r="O13">
+        <v>27</v>
+      </c>
+      <c r="P13">
+        <v>110</v>
+      </c>
+      <c r="Q13">
+        <v>51</v>
+      </c>
+      <c r="R13">
+        <v>19</v>
+      </c>
+      <c r="S13">
         <v>2</v>
       </c>
-      <c r="G13">
-        <v>113</v>
-      </c>
-      <c r="H13">
-        <v>1853</v>
-      </c>
-      <c r="I13">
-        <v>229</v>
-      </c>
-      <c r="J13">
-        <v>518</v>
-      </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-      <c r="L13">
-        <v>52</v>
-      </c>
-      <c r="M13">
-        <v>125</v>
-      </c>
-      <c r="N13">
-        <v>196</v>
-      </c>
-      <c r="O13">
-        <v>84</v>
-      </c>
-      <c r="P13">
-        <v>276</v>
-      </c>
-      <c r="Q13">
-        <v>201</v>
-      </c>
-      <c r="R13">
-        <v>59</v>
-      </c>
-      <c r="S13">
-        <v>8</v>
-      </c>
       <c r="T13">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="U13">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="V13">
-        <v>595</v>
+        <v>278</v>
       </c>
       <c r="W13">
-        <v>0.442</v>
+        <v>0.421</v>
       </c>
       <c r="X13">
-        <v>0.231</v>
+        <v>0.27</v>
       </c>
       <c r="Y13">
-        <v>0.638</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="Z13">
-        <v>16.4</v>
+        <v>13.6</v>
       </c>
       <c r="AA13">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AB13">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AC13">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="s">
         <v>148</v>
@@ -2028,19 +2028,19 @@
         <v>23</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H14">
-        <v>433</v>
+        <v>322</v>
       </c>
       <c r="I14">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="J14">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2049,49 +2049,49 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N14">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="O14">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="P14">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T14">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U14">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="V14">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="W14">
-        <v>0.425</v>
+        <v>0.408</v>
       </c>
       <c r="Y14">
-        <v>0.578</v>
+        <v>0.643</v>
       </c>
       <c r="Z14">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AA14">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB14">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AC14">
         <v>0.3</v>
@@ -2117,76 +2117,73 @@
         <v>22</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>514</v>
+        <v>69</v>
       </c>
       <c r="H15">
-        <v>10865</v>
+        <v>940</v>
       </c>
       <c r="I15">
-        <v>1614</v>
+        <v>107</v>
       </c>
       <c r="J15">
-        <v>3611</v>
+        <v>221</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>873</v>
+        <v>99</v>
       </c>
       <c r="N15">
-        <v>1247</v>
+        <v>150</v>
       </c>
       <c r="O15">
-        <v>731</v>
+        <v>95</v>
       </c>
       <c r="P15">
-        <v>2236</v>
+        <v>208</v>
       </c>
       <c r="Q15">
-        <v>457</v>
+        <v>28</v>
       </c>
       <c r="R15">
-        <v>357</v>
+        <v>31</v>
       </c>
       <c r="S15">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="T15">
-        <v>528</v>
+        <v>65</v>
       </c>
       <c r="U15">
-        <v>1238</v>
+        <v>160</v>
       </c>
       <c r="V15">
-        <v>4111</v>
+        <v>313</v>
       </c>
       <c r="W15">
-        <v>0.447</v>
-      </c>
-      <c r="X15">
-        <v>0.182</v>
+        <v>0.484</v>
       </c>
       <c r="Y15">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="Z15">
-        <v>21.1</v>
+        <v>13.6</v>
       </c>
       <c r="AA15">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="AB15">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="AC15">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AD15" t="s">
         <v>148</v>
@@ -2301,76 +2298,76 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>887</v>
+        <v>73</v>
       </c>
       <c r="H17">
-        <v>19983</v>
+        <v>1384</v>
       </c>
       <c r="I17">
-        <v>2402</v>
+        <v>163</v>
       </c>
       <c r="J17">
-        <v>5178</v>
+        <v>348</v>
       </c>
       <c r="K17">
-        <v>879</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>2233</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>934</v>
+        <v>87</v>
       </c>
       <c r="N17">
-        <v>1276</v>
+        <v>118</v>
       </c>
       <c r="O17">
-        <v>800</v>
+        <v>121</v>
       </c>
       <c r="P17">
-        <v>2819</v>
+        <v>286</v>
       </c>
       <c r="Q17">
-        <v>1380</v>
+        <v>81</v>
       </c>
       <c r="R17">
-        <v>706</v>
+        <v>55</v>
       </c>
       <c r="S17">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="T17">
-        <v>759</v>
+        <v>50</v>
       </c>
       <c r="U17">
-        <v>1624</v>
+        <v>128</v>
       </c>
       <c r="V17">
-        <v>6617</v>
+        <v>422</v>
       </c>
       <c r="W17">
-        <v>0.464</v>
+        <v>0.468</v>
       </c>
       <c r="X17">
-        <v>0.394</v>
+        <v>0.22</v>
       </c>
       <c r="Y17">
-        <v>0.732</v>
+        <v>0.737</v>
       </c>
       <c r="Z17">
-        <v>22.5</v>
+        <v>19</v>
       </c>
       <c r="AA17">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="AB17">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="AC17">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="AD17" t="s">
         <v>148</v>
@@ -2393,76 +2390,76 @@
         <v>19</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>849</v>
+        <v>80</v>
       </c>
       <c r="H18">
-        <v>31305</v>
+        <v>2768</v>
       </c>
       <c r="I18">
-        <v>7814</v>
+        <v>587</v>
       </c>
       <c r="J18">
-        <v>15859</v>
+        <v>1366</v>
       </c>
       <c r="K18">
-        <v>1570</v>
+        <v>59</v>
       </c>
       <c r="L18">
-        <v>4122</v>
+        <v>205</v>
       </c>
       <c r="M18">
-        <v>5742</v>
+        <v>391</v>
       </c>
       <c r="N18">
-        <v>6506</v>
+        <v>448</v>
       </c>
       <c r="O18">
-        <v>617</v>
+        <v>70</v>
       </c>
       <c r="P18">
-        <v>5992</v>
+        <v>348</v>
       </c>
       <c r="Q18">
-        <v>3486</v>
+        <v>192</v>
       </c>
       <c r="R18">
-        <v>948</v>
+        <v>78</v>
       </c>
       <c r="S18">
-        <v>941</v>
+        <v>75</v>
       </c>
       <c r="T18">
-        <v>2653</v>
+        <v>232</v>
       </c>
       <c r="U18">
-        <v>1618</v>
+        <v>122</v>
       </c>
       <c r="V18">
-        <v>22940</v>
+        <v>1624</v>
       </c>
       <c r="W18">
-        <v>0.493</v>
+        <v>0.43</v>
       </c>
       <c r="X18">
-        <v>0.381</v>
+        <v>0.288</v>
       </c>
       <c r="Y18">
-        <v>0.883</v>
+        <v>0.873</v>
       </c>
       <c r="Z18">
-        <v>36.9</v>
+        <v>34.6</v>
       </c>
       <c r="AA18">
-        <v>27</v>
+        <v>20.3</v>
       </c>
       <c r="AB18">
-        <v>7.1</v>
+        <v>4.4</v>
       </c>
       <c r="AC18">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="AD18" t="s">
         <v>148</v>
@@ -2577,76 +2574,73 @@
         <v>21</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>1107</v>
+        <v>70</v>
       </c>
       <c r="I20">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="J20">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>2</v>
       </c>
-      <c r="M20">
-        <v>55</v>
-      </c>
       <c r="N20">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="P20">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="Q20">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>8</v>
+      </c>
+      <c r="U20">
         <v>19</v>
       </c>
-      <c r="S20">
-        <v>53</v>
-      </c>
-      <c r="T20">
-        <v>66</v>
-      </c>
-      <c r="U20">
-        <v>224</v>
-      </c>
       <c r="V20">
-        <v>305</v>
+        <v>14</v>
       </c>
       <c r="W20">
-        <v>0.496</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="Y20">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="Z20">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AA20">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="AC20">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" t="s">
         <v>148</v>
@@ -2669,76 +2663,76 @@
         <v>22</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>45</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>12</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>2</v>
-      </c>
-      <c r="G21">
-        <v>20</v>
-      </c>
-      <c r="H21">
-        <v>143</v>
-      </c>
-      <c r="I21">
-        <v>18</v>
-      </c>
-      <c r="J21">
-        <v>59</v>
-      </c>
-      <c r="K21">
-        <v>7</v>
-      </c>
-      <c r="L21">
-        <v>35</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>6</v>
       </c>
       <c r="O21">
         <v>3</v>
       </c>
       <c r="P21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>7</v>
-      </c>
       <c r="U21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V21">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="W21">
-        <v>0.305</v>
+        <v>0.391</v>
       </c>
       <c r="X21">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Y21">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>7.2</v>
+        <v>11.3</v>
       </c>
       <c r="AA21">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="AB21">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD21" t="s">
         <v>148</v>
@@ -2761,76 +2755,73 @@
         <v>23</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>806</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>20691</v>
+        <v>41</v>
       </c>
       <c r="I22">
-        <v>3401</v>
+        <v>8</v>
       </c>
       <c r="J22">
-        <v>6168</v>
+        <v>17</v>
       </c>
       <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
         <v>3</v>
       </c>
-      <c r="L22">
-        <v>20</v>
-      </c>
-      <c r="M22">
-        <v>1146</v>
-      </c>
-      <c r="N22">
-        <v>1686</v>
-      </c>
       <c r="O22">
-        <v>1759</v>
+        <v>8</v>
       </c>
       <c r="P22">
-        <v>6407</v>
+        <v>16</v>
       </c>
       <c r="Q22">
-        <v>915</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>383</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>885</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>958</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1775</v>
+        <v>4</v>
       </c>
       <c r="V22">
-        <v>7951</v>
+        <v>18</v>
       </c>
       <c r="W22">
-        <v>0.551</v>
-      </c>
-      <c r="X22">
-        <v>0.15</v>
+        <v>0.471</v>
       </c>
       <c r="Y22">
-        <v>0.68</v>
+        <v>0.667</v>
       </c>
       <c r="Z22">
-        <v>25.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA22">
-        <v>9.9</v>
+        <v>3</v>
       </c>
       <c r="AB22">
-        <v>7.9</v>
+        <v>2.7</v>
       </c>
       <c r="AC22">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD22" t="s">
         <v>148</v>
@@ -2853,73 +2844,73 @@
         <v>23</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>318</v>
+        <v>61</v>
       </c>
       <c r="H23">
-        <v>3851</v>
+        <v>613</v>
       </c>
       <c r="I23">
-        <v>440</v>
+        <v>103</v>
       </c>
       <c r="J23">
-        <v>864</v>
+        <v>204</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="N23">
-        <v>331</v>
+        <v>99</v>
       </c>
       <c r="O23">
-        <v>431</v>
+        <v>70</v>
       </c>
       <c r="P23">
-        <v>1190</v>
+        <v>168</v>
       </c>
       <c r="Q23">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="R23">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="S23">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="T23">
-        <v>265</v>
+        <v>57</v>
       </c>
       <c r="U23">
-        <v>678</v>
+        <v>117</v>
       </c>
       <c r="V23">
-        <v>1066</v>
+        <v>262</v>
       </c>
       <c r="W23">
-        <v>0.509</v>
+        <v>0.505</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.5620000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="Z23">
-        <v>12.1</v>
+        <v>10</v>
       </c>
       <c r="AA23">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="AB23">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="AC23">
         <v>0.7</v>
@@ -2945,76 +2936,76 @@
         <v>21</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>901</v>
+        <v>80</v>
       </c>
       <c r="H24">
-        <v>26593</v>
+        <v>2253</v>
       </c>
       <c r="I24">
-        <v>4238</v>
+        <v>320</v>
       </c>
       <c r="J24">
-        <v>9608</v>
+        <v>749</v>
       </c>
       <c r="K24">
-        <v>920</v>
+        <v>21</v>
       </c>
       <c r="L24">
-        <v>2754</v>
+        <v>76</v>
       </c>
       <c r="M24">
-        <v>2271</v>
+        <v>177</v>
       </c>
       <c r="N24">
-        <v>2822</v>
+        <v>238</v>
       </c>
       <c r="O24">
-        <v>832</v>
+        <v>101</v>
       </c>
       <c r="P24">
-        <v>3989</v>
+        <v>379</v>
       </c>
       <c r="Q24">
-        <v>1404</v>
+        <v>119</v>
       </c>
       <c r="R24">
-        <v>651</v>
+        <v>46</v>
       </c>
       <c r="S24">
-        <v>482</v>
+        <v>49</v>
       </c>
       <c r="T24">
-        <v>1350</v>
+        <v>158</v>
       </c>
       <c r="U24">
-        <v>1979</v>
+        <v>198</v>
       </c>
       <c r="V24">
-        <v>11667</v>
+        <v>838</v>
       </c>
       <c r="W24">
-        <v>0.441</v>
+        <v>0.427</v>
       </c>
       <c r="X24">
-        <v>0.334</v>
+        <v>0.276</v>
       </c>
       <c r="Y24">
-        <v>0.805</v>
+        <v>0.744</v>
       </c>
       <c r="Z24">
-        <v>29.5</v>
+        <v>28.2</v>
       </c>
       <c r="AA24">
-        <v>12.9</v>
+        <v>10.5</v>
       </c>
       <c r="AB24">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AC24">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD24" t="s">
         <v>148</v>
@@ -3129,73 +3120,73 @@
         <v>24</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>159</v>
+      </c>
+      <c r="I26">
+        <v>27</v>
+      </c>
+      <c r="J26">
         <v>54</v>
       </c>
-      <c r="H26">
-        <v>496</v>
-      </c>
-      <c r="I26">
-        <v>70</v>
-      </c>
-      <c r="J26">
-        <v>151</v>
-      </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="N26">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="O26">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="P26">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="S26">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T26">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="U26">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="V26">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="W26">
-        <v>0.464</v>
+        <v>0.5</v>
       </c>
       <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>0.782</v>
+        <v>0.615</v>
       </c>
       <c r="Z26">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AA26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB26">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="AC26">
         <v>0.2</v>
@@ -3221,76 +3212,76 @@
         <v>19</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>684</v>
+        <v>71</v>
       </c>
       <c r="H27">
-        <v>15541</v>
+        <v>931</v>
       </c>
       <c r="I27">
-        <v>2451</v>
+        <v>146</v>
       </c>
       <c r="J27">
-        <v>5363</v>
+        <v>318</v>
       </c>
       <c r="K27">
-        <v>359</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>1026</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>671</v>
+        <v>38</v>
       </c>
       <c r="N27">
-        <v>937</v>
+        <v>58</v>
       </c>
       <c r="O27">
-        <v>991</v>
+        <v>68</v>
       </c>
       <c r="P27">
-        <v>3893</v>
+        <v>230</v>
       </c>
       <c r="Q27">
-        <v>1271</v>
+        <v>44</v>
       </c>
       <c r="R27">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="S27">
-        <v>652</v>
+        <v>40</v>
       </c>
       <c r="T27">
-        <v>971</v>
+        <v>56</v>
       </c>
       <c r="U27">
-        <v>1709</v>
+        <v>128</v>
       </c>
       <c r="V27">
-        <v>5932</v>
+        <v>334</v>
       </c>
       <c r="W27">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="X27">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="Y27">
-        <v>0.716</v>
+        <v>0.655</v>
       </c>
       <c r="Z27">
-        <v>22.7</v>
+        <v>13.1</v>
       </c>
       <c r="AA27">
-        <v>8.699999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="AB27">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="AC27">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD27" t="s">
         <v>148</v>
@@ -3313,76 +3304,76 @@
         <v>21</v>
       </c>
       <c r="F28">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>847</v>
+        <v>81</v>
       </c>
       <c r="H28">
-        <v>27656</v>
+        <v>2540</v>
       </c>
       <c r="I28">
-        <v>4971</v>
+        <v>333</v>
       </c>
       <c r="J28">
-        <v>9566</v>
+        <v>668</v>
       </c>
       <c r="K28">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1257</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>1427</v>
+        <v>155</v>
       </c>
       <c r="N28">
-        <v>1892</v>
+        <v>212</v>
       </c>
       <c r="O28">
-        <v>1789</v>
+        <v>248</v>
       </c>
       <c r="P28">
-        <v>7015</v>
+        <v>785</v>
       </c>
       <c r="Q28">
-        <v>2794</v>
+        <v>124</v>
       </c>
       <c r="R28">
-        <v>688</v>
+        <v>60</v>
       </c>
       <c r="S28">
-        <v>1003</v>
+        <v>76</v>
       </c>
       <c r="T28">
-        <v>1332</v>
+        <v>137</v>
       </c>
       <c r="U28">
-        <v>1932</v>
+        <v>267</v>
       </c>
       <c r="V28">
-        <v>11824</v>
+        <v>821</v>
       </c>
       <c r="W28">
-        <v>0.52</v>
+        <v>0.499</v>
       </c>
       <c r="X28">
-        <v>0.362</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.754</v>
+        <v>0.731</v>
       </c>
       <c r="Z28">
-        <v>32.7</v>
+        <v>31.4</v>
       </c>
       <c r="AA28">
-        <v>14</v>
+        <v>10.1</v>
       </c>
       <c r="AB28">
-        <v>8.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC28">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD28" t="s">
         <v>148</v>
@@ -3405,76 +3396,76 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="H29">
-        <v>6038</v>
+        <v>1647</v>
       </c>
       <c r="I29">
-        <v>813</v>
+        <v>219</v>
       </c>
       <c r="J29">
-        <v>2012</v>
+        <v>520</v>
       </c>
       <c r="K29">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="L29">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>447</v>
+        <v>122</v>
       </c>
       <c r="N29">
-        <v>573</v>
+        <v>145</v>
       </c>
       <c r="O29">
-        <v>379</v>
+        <v>106</v>
       </c>
       <c r="P29">
-        <v>1339</v>
+        <v>344</v>
       </c>
       <c r="Q29">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="R29">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="S29">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="T29">
-        <v>302</v>
+        <v>90</v>
       </c>
       <c r="U29">
-        <v>618</v>
+        <v>153</v>
       </c>
       <c r="V29">
-        <v>2148</v>
+        <v>566</v>
       </c>
       <c r="W29">
-        <v>0.404</v>
+        <v>0.421</v>
       </c>
       <c r="X29">
-        <v>0.333</v>
+        <v>0.286</v>
       </c>
       <c r="Y29">
-        <v>0.78</v>
+        <v>0.841</v>
       </c>
       <c r="Z29">
-        <v>22.2</v>
+        <v>25</v>
       </c>
       <c r="AA29">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="AB29">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AC29">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD29" t="s">
         <v>148</v>
@@ -3497,76 +3488,76 @@
         <v>24</v>
       </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>71</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>26</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>13</v>
+      </c>
+      <c r="M30">
+        <v>8</v>
+      </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>14</v>
+      </c>
+      <c r="Q30">
+        <v>9</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
         <v>2</v>
       </c>
-      <c r="G30">
-        <v>24</v>
-      </c>
-      <c r="H30">
-        <v>184</v>
-      </c>
-      <c r="I30">
-        <v>20</v>
-      </c>
-      <c r="J30">
-        <v>58</v>
-      </c>
-      <c r="K30">
-        <v>6</v>
-      </c>
-      <c r="L30">
-        <v>24</v>
-      </c>
-      <c r="M30">
-        <v>12</v>
-      </c>
-      <c r="N30">
-        <v>16</v>
-      </c>
-      <c r="O30">
-        <v>7</v>
-      </c>
-      <c r="P30">
-        <v>32</v>
-      </c>
-      <c r="Q30">
-        <v>24</v>
-      </c>
-      <c r="R30">
-        <v>7</v>
-      </c>
-      <c r="S30">
-        <v>3</v>
-      </c>
       <c r="T30">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="U30">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="V30">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="W30">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="X30">
-        <v>0.25</v>
+        <v>0.308</v>
       </c>
       <c r="Y30">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z30">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="AA30">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AB30">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD30" t="s">
         <v>148</v>
@@ -3589,76 +3580,76 @@
         <v>24</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>513</v>
+        <v>42</v>
       </c>
       <c r="H31">
-        <v>11524</v>
+        <v>711</v>
       </c>
       <c r="I31">
-        <v>2086</v>
+        <v>135</v>
       </c>
       <c r="J31">
-        <v>3898</v>
+        <v>219</v>
       </c>
       <c r="K31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>1360</v>
+        <v>72</v>
       </c>
       <c r="N31">
-        <v>1732</v>
+        <v>109</v>
       </c>
       <c r="O31">
-        <v>994</v>
+        <v>96</v>
       </c>
       <c r="P31">
-        <v>2533</v>
+        <v>207</v>
       </c>
       <c r="Q31">
-        <v>355</v>
+        <v>21</v>
       </c>
       <c r="R31">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="S31">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="T31">
-        <v>603</v>
+        <v>26</v>
       </c>
       <c r="U31">
-        <v>1208</v>
+        <v>98</v>
       </c>
       <c r="V31">
-        <v>5541</v>
+        <v>342</v>
       </c>
       <c r="W31">
-        <v>0.535</v>
+        <v>0.616</v>
       </c>
       <c r="X31">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>0.785</v>
+        <v>0.661</v>
       </c>
       <c r="Z31">
-        <v>22.5</v>
+        <v>16.9</v>
       </c>
       <c r="AA31">
-        <v>10.8</v>
+        <v>8.1</v>
       </c>
       <c r="AB31">
         <v>4.9</v>
       </c>
       <c r="AC31">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD31" t="s">
         <v>148</v>
@@ -3856,76 +3847,76 @@
         <v>23</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="H34">
-        <v>2385</v>
+        <v>865</v>
       </c>
       <c r="I34">
-        <v>263</v>
+        <v>95</v>
       </c>
       <c r="J34">
-        <v>637</v>
+        <v>237</v>
       </c>
       <c r="K34">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="L34">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="N34">
-        <v>221</v>
+        <v>48</v>
       </c>
       <c r="O34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="P34">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="Q34">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="R34">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="S34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="U34">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="V34">
-        <v>725</v>
+        <v>235</v>
       </c>
       <c r="W34">
-        <v>0.413</v>
+        <v>0.401</v>
       </c>
       <c r="X34">
-        <v>0.235</v>
+        <v>0.206</v>
       </c>
       <c r="Y34">
-        <v>0.778</v>
+        <v>0.792</v>
       </c>
       <c r="Z34">
-        <v>12.7</v>
+        <v>15.4</v>
       </c>
       <c r="AA34">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AB34">
         <v>1</v>
       </c>
       <c r="AC34">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AD34" t="s">
         <v>148</v>
@@ -3948,76 +3939,73 @@
         <v>21</v>
       </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>23</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
         <v>12</v>
       </c>
-      <c r="G35">
-        <v>618</v>
-      </c>
-      <c r="H35">
-        <v>10353</v>
-      </c>
-      <c r="I35">
-        <v>1201</v>
-      </c>
-      <c r="J35">
-        <v>2254</v>
-      </c>
       <c r="K35">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>799</v>
+        <v>9</v>
       </c>
       <c r="N35">
-        <v>1305</v>
+        <v>9</v>
       </c>
       <c r="O35">
-        <v>937</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>2705</v>
+        <v>5</v>
       </c>
       <c r="Q35">
-        <v>357</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>443</v>
+        <v>4</v>
       </c>
       <c r="T35">
-        <v>601</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1635</v>
+        <v>4</v>
       </c>
       <c r="V35">
-        <v>3209</v>
+        <v>21</v>
       </c>
       <c r="W35">
-        <v>0.533</v>
-      </c>
-      <c r="X35">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="Y35">
-        <v>0.612</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>16.8</v>
+        <v>3.8</v>
       </c>
       <c r="AA35">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="AB35">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC35">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AD35" t="s">
         <v>148</v>
@@ -4040,76 +4028,76 @@
         <v>22</v>
       </c>
       <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>70</v>
+      </c>
+      <c r="H36">
+        <v>695</v>
+      </c>
+      <c r="I36">
+        <v>39</v>
+      </c>
+      <c r="J36">
+        <v>103</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
         <v>6</v>
       </c>
-      <c r="G36">
-        <v>342</v>
-      </c>
-      <c r="H36">
-        <v>5348</v>
-      </c>
-      <c r="I36">
-        <v>388</v>
-      </c>
-      <c r="J36">
-        <v>927</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>16</v>
-      </c>
       <c r="M36">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="N36">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="O36">
-        <v>344</v>
+        <v>53</v>
       </c>
       <c r="P36">
-        <v>1169</v>
+        <v>139</v>
       </c>
       <c r="Q36">
-        <v>422</v>
+        <v>40</v>
       </c>
       <c r="R36">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="S36">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="T36">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="U36">
-        <v>501</v>
+        <v>76</v>
       </c>
       <c r="V36">
-        <v>939</v>
+        <v>93</v>
       </c>
       <c r="W36">
-        <v>0.419</v>
+        <v>0.379</v>
       </c>
       <c r="X36">
-        <v>0.188</v>
+        <v>0.167</v>
       </c>
       <c r="Y36">
-        <v>0.658</v>
+        <v>0.438</v>
       </c>
       <c r="Z36">
-        <v>15.6</v>
+        <v>9.9</v>
       </c>
       <c r="AA36">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="AB36">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="AC36">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AD36" t="s">
         <v>148</v>
@@ -4132,76 +4120,73 @@
         <v>20</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>433</v>
+        <v>8</v>
       </c>
       <c r="H37">
-        <v>8271</v>
+        <v>28</v>
       </c>
       <c r="I37">
-        <v>914</v>
+        <v>6</v>
       </c>
       <c r="J37">
-        <v>1972</v>
+        <v>10</v>
       </c>
       <c r="K37">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>576</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>468</v>
+        <v>2</v>
       </c>
       <c r="P37">
-        <v>1686</v>
+        <v>10</v>
       </c>
       <c r="Q37">
-        <v>901</v>
+        <v>2</v>
       </c>
       <c r="R37">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="S37">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>381</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>817</v>
+        <v>1</v>
       </c>
       <c r="V37">
-        <v>2333</v>
+        <v>12</v>
       </c>
       <c r="W37">
-        <v>0.463</v>
+        <v>0.6</v>
       </c>
       <c r="X37">
-        <v>0.34</v>
-      </c>
-      <c r="Y37">
-        <v>0.705</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>19.1</v>
+        <v>3.5</v>
       </c>
       <c r="AA37">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="AB37">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="AC37">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD37" t="s">
         <v>148</v>
@@ -4224,76 +4209,76 @@
         <v>27</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="H38">
-        <v>6451</v>
+        <v>2166</v>
       </c>
       <c r="I38">
-        <v>723</v>
+        <v>279</v>
       </c>
       <c r="J38">
-        <v>1568</v>
+        <v>575</v>
       </c>
       <c r="K38">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="L38">
-        <v>538</v>
+        <v>122</v>
       </c>
       <c r="M38">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="N38">
-        <v>229</v>
+        <v>85</v>
       </c>
       <c r="O38">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="P38">
-        <v>1227</v>
+        <v>484</v>
       </c>
       <c r="Q38">
-        <v>291</v>
+        <v>90</v>
       </c>
       <c r="R38">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="S38">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="T38">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="U38">
-        <v>424</v>
+        <v>152</v>
       </c>
       <c r="V38">
-        <v>1807</v>
+        <v>661</v>
       </c>
       <c r="W38">
-        <v>0.461</v>
+        <v>0.485</v>
       </c>
       <c r="X38">
-        <v>0.329</v>
+        <v>0.328</v>
       </c>
       <c r="Y38">
-        <v>0.803</v>
+        <v>0.741</v>
       </c>
       <c r="Z38">
-        <v>22.6</v>
+        <v>27.8</v>
       </c>
       <c r="AA38">
-        <v>6.3</v>
+        <v>8.5</v>
       </c>
       <c r="AB38">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD38" t="s">
         <v>148</v>
@@ -4408,70 +4393,67 @@
         <v>23</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H40">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J40">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K40">
         <v>3</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T40">
         <v>4</v>
       </c>
       <c r="U40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W40">
-        <v>0.281</v>
+        <v>0.261</v>
       </c>
       <c r="X40">
-        <v>0.2</v>
-      </c>
-      <c r="Y40">
-        <v>0.5</v>
+        <v>0.231</v>
       </c>
       <c r="Z40">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AA40">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AB40">
         <v>0.4</v>
@@ -4500,76 +4482,76 @@
         <v>22</v>
       </c>
       <c r="F41">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>669</v>
+        <v>74</v>
       </c>
       <c r="H41">
-        <v>18613</v>
+        <v>1534</v>
       </c>
       <c r="I41">
-        <v>2244</v>
+        <v>177</v>
       </c>
       <c r="J41">
-        <v>4567</v>
+        <v>367</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>1384</v>
+        <v>134</v>
       </c>
       <c r="N41">
-        <v>1977</v>
+        <v>194</v>
       </c>
       <c r="O41">
-        <v>2139</v>
+        <v>174</v>
       </c>
       <c r="P41">
-        <v>6050</v>
+        <v>416</v>
       </c>
       <c r="Q41">
-        <v>1902</v>
+        <v>84</v>
       </c>
       <c r="R41">
-        <v>533</v>
+        <v>68</v>
       </c>
       <c r="S41">
-        <v>874</v>
+        <v>64</v>
       </c>
       <c r="T41">
-        <v>1129</v>
+        <v>89</v>
       </c>
       <c r="U41">
-        <v>1871</v>
+        <v>173</v>
       </c>
       <c r="V41">
-        <v>5872</v>
+        <v>488</v>
       </c>
       <c r="W41">
-        <v>0.491</v>
+        <v>0.482</v>
       </c>
       <c r="X41">
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>0.7</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="Z41">
-        <v>27.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA41">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="AB41">
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="AC41">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD41" t="s">
         <v>148</v>
@@ -4592,73 +4574,73 @@
         <v>22</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="H42">
-        <v>1044</v>
+        <v>320</v>
       </c>
       <c r="I42">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="J42">
-        <v>414</v>
+        <v>125</v>
       </c>
       <c r="K42">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L42">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="M42">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="N42">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="O42">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="P42">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="R42">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="S42">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="T42">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="U42">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="V42">
-        <v>438</v>
+        <v>125</v>
       </c>
       <c r="W42">
-        <v>0.386</v>
+        <v>0.352</v>
       </c>
       <c r="X42">
-        <v>0.29</v>
+        <v>0.283</v>
       </c>
       <c r="Y42">
-        <v>0.793</v>
+        <v>0.645</v>
       </c>
       <c r="Z42">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="AA42">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AB42">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AC42">
         <v>0.2</v>
@@ -4865,76 +4847,76 @@
         <v>21</v>
       </c>
       <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>95</v>
+      </c>
+      <c r="I45">
+        <v>14</v>
+      </c>
+      <c r="J45">
+        <v>39</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>12</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
         <v>2</v>
       </c>
-      <c r="G45">
-        <v>62</v>
-      </c>
-      <c r="H45">
-        <v>461</v>
-      </c>
-      <c r="I45">
-        <v>45</v>
-      </c>
-      <c r="J45">
-        <v>140</v>
-      </c>
-      <c r="K45">
-        <v>17</v>
-      </c>
-      <c r="L45">
-        <v>60</v>
-      </c>
-      <c r="M45">
-        <v>18</v>
-      </c>
-      <c r="N45">
-        <v>23</v>
-      </c>
       <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>8</v>
+      </c>
+      <c r="Q45">
+        <v>13</v>
+      </c>
+      <c r="R45">
+        <v>5</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>5</v>
+      </c>
+      <c r="U45">
         <v>10</v>
       </c>
-      <c r="P45">
-        <v>51</v>
-      </c>
-      <c r="Q45">
-        <v>52</v>
-      </c>
-      <c r="R45">
-        <v>20</v>
-      </c>
-      <c r="S45">
-        <v>3</v>
-      </c>
-      <c r="T45">
-        <v>24</v>
-      </c>
-      <c r="U45">
-        <v>44</v>
-      </c>
       <c r="V45">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="W45">
-        <v>0.321</v>
+        <v>0.359</v>
       </c>
       <c r="X45">
-        <v>0.283</v>
+        <v>0.25</v>
       </c>
       <c r="Y45">
-        <v>0.783</v>
+        <v>0.5</v>
       </c>
       <c r="Z45">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA45">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC45">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD45" t="s">
         <v>148</v>
@@ -4957,19 +4939,19 @@
         <v>23</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H46">
-        <v>780</v>
+        <v>556</v>
       </c>
       <c r="I46">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J46">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4978,52 +4960,52 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N46">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O46">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P46">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="Q46">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R46">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="S46">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T46">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="U46">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="V46">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="W46">
-        <v>0.483</v>
+        <v>0.471</v>
       </c>
       <c r="Y46">
-        <v>0.605</v>
+        <v>0.593</v>
       </c>
       <c r="Z46">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="AA46">
         <v>1.9</v>
       </c>
       <c r="AB46">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AC46">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD46" t="s">
         <v>148</v>
@@ -5046,73 +5028,70 @@
         <v>23</v>
       </c>
       <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>31</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
         <v>2</v>
       </c>
-      <c r="G47">
-        <v>22</v>
-      </c>
-      <c r="H47">
-        <v>114</v>
-      </c>
-      <c r="I47">
-        <v>9</v>
-      </c>
-      <c r="J47">
-        <v>36</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
+      <c r="O47">
         <v>3</v>
       </c>
-      <c r="M47">
-        <v>4</v>
-      </c>
-      <c r="N47">
-        <v>9</v>
-      </c>
-      <c r="O47">
-        <v>13</v>
-      </c>
       <c r="P47">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S47">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="V47">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="W47">
-        <v>0.25</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Y47">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="Z47">
-        <v>5.2</v>
+        <v>7.8</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AB47">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -5138,76 +5117,76 @@
         <v>27</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>743</v>
+        <v>82</v>
       </c>
       <c r="H48">
-        <v>19001</v>
+        <v>2024</v>
       </c>
       <c r="I48">
-        <v>3669</v>
+        <v>345</v>
       </c>
       <c r="J48">
-        <v>7442</v>
+        <v>670</v>
       </c>
       <c r="K48">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>271</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>1452</v>
+        <v>157</v>
       </c>
       <c r="N48">
-        <v>1961</v>
+        <v>235</v>
       </c>
       <c r="O48">
-        <v>1335</v>
+        <v>174</v>
       </c>
       <c r="P48">
-        <v>4941</v>
+        <v>525</v>
       </c>
       <c r="Q48">
-        <v>1194</v>
+        <v>106</v>
       </c>
       <c r="R48">
-        <v>474</v>
+        <v>60</v>
       </c>
       <c r="S48">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="T48">
-        <v>1121</v>
+        <v>105</v>
       </c>
       <c r="U48">
-        <v>2037</v>
+        <v>235</v>
       </c>
       <c r="V48">
-        <v>8882</v>
+        <v>847</v>
       </c>
       <c r="W48">
-        <v>0.493</v>
+        <v>0.515</v>
       </c>
       <c r="X48">
-        <v>0.339</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>0.74</v>
+        <v>0.668</v>
       </c>
       <c r="Z48">
-        <v>25.6</v>
+        <v>24.7</v>
       </c>
       <c r="AA48">
-        <v>12</v>
+        <v>10.3</v>
       </c>
       <c r="AB48">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AC48">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AD48" t="s">
         <v>148</v>
@@ -5230,76 +5209,76 @@
         <v>21</v>
       </c>
       <c r="F49">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>691</v>
+        <v>17</v>
       </c>
       <c r="H49">
-        <v>16119</v>
+        <v>450</v>
       </c>
       <c r="I49">
-        <v>2406</v>
+        <v>51</v>
       </c>
       <c r="J49">
-        <v>5539</v>
+        <v>117</v>
       </c>
       <c r="K49">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>658</v>
+        <v>7</v>
       </c>
       <c r="M49">
-        <v>2121</v>
+        <v>32</v>
       </c>
       <c r="N49">
-        <v>2681</v>
+        <v>41</v>
       </c>
       <c r="O49">
-        <v>339</v>
+        <v>8</v>
       </c>
       <c r="P49">
-        <v>1840</v>
+        <v>58</v>
       </c>
       <c r="Q49">
-        <v>2807</v>
+        <v>127</v>
       </c>
       <c r="R49">
-        <v>472</v>
+        <v>17</v>
       </c>
       <c r="S49">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="T49">
-        <v>1173</v>
+        <v>36</v>
       </c>
       <c r="U49">
-        <v>942</v>
+        <v>26</v>
       </c>
       <c r="V49">
-        <v>7141</v>
+        <v>137</v>
       </c>
       <c r="W49">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="X49">
-        <v>0.316</v>
+        <v>0.429</v>
       </c>
       <c r="Y49">
-        <v>0.791</v>
+        <v>0.78</v>
       </c>
       <c r="Z49">
-        <v>23.3</v>
+        <v>26.5</v>
       </c>
       <c r="AA49">
-        <v>10.3</v>
+        <v>8.1</v>
       </c>
       <c r="AB49">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="AC49">
-        <v>4.1</v>
+        <v>7.5</v>
       </c>
       <c r="AD49" t="s">
         <v>148</v>
@@ -5322,38 +5301,38 @@
         <v>24</v>
       </c>
       <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>11</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
         <v>2</v>
       </c>
-      <c r="G50">
-        <v>5</v>
-      </c>
-      <c r="H50">
-        <v>24</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-      <c r="J50">
-        <v>7</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>3</v>
-      </c>
-      <c r="P50">
-        <v>6</v>
-      </c>
       <c r="Q50">
         <v>1</v>
       </c>
@@ -5364,28 +5343,28 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="Z50">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="AA50">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AC50">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD50" t="s">
         <v>148</v>
@@ -5408,76 +5387,76 @@
         <v>21</v>
       </c>
       <c r="F51">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>616</v>
+        <v>76</v>
       </c>
       <c r="H51">
-        <v>10029</v>
+        <v>1107</v>
       </c>
       <c r="I51">
-        <v>1572</v>
+        <v>141</v>
       </c>
       <c r="J51">
-        <v>3360</v>
+        <v>310</v>
       </c>
       <c r="K51">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="L51">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>549</v>
+        <v>54</v>
       </c>
       <c r="N51">
-        <v>701</v>
+        <v>82</v>
       </c>
       <c r="O51">
-        <v>656</v>
+        <v>77</v>
       </c>
       <c r="P51">
-        <v>2075</v>
+        <v>230</v>
       </c>
       <c r="Q51">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="R51">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="S51">
-        <v>408</v>
+        <v>50</v>
       </c>
       <c r="T51">
-        <v>507</v>
+        <v>48</v>
       </c>
       <c r="U51">
-        <v>1337</v>
+        <v>142</v>
       </c>
       <c r="V51">
-        <v>3777</v>
+        <v>340</v>
       </c>
       <c r="W51">
-        <v>0.468</v>
+        <v>0.455</v>
       </c>
       <c r="X51">
-        <v>0.333</v>
+        <v>0.286</v>
       </c>
       <c r="Y51">
-        <v>0.783</v>
+        <v>0.659</v>
       </c>
       <c r="Z51">
-        <v>16.3</v>
+        <v>14.6</v>
       </c>
       <c r="AA51">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="AB51">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AC51">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD51" t="s">
         <v>148</v>
@@ -5592,76 +5571,76 @@
         <v>21</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>651</v>
+        <v>57</v>
       </c>
       <c r="H53">
-        <v>17890</v>
+        <v>1081</v>
       </c>
       <c r="I53">
-        <v>2904</v>
+        <v>153</v>
       </c>
       <c r="J53">
-        <v>6870</v>
+        <v>382</v>
       </c>
       <c r="K53">
-        <v>276</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>921</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>2101</v>
+        <v>127</v>
       </c>
       <c r="N53">
-        <v>2551</v>
+        <v>156</v>
       </c>
       <c r="O53">
-        <v>419</v>
+        <v>32</v>
       </c>
       <c r="P53">
-        <v>1912</v>
+        <v>129</v>
       </c>
       <c r="Q53">
-        <v>2333</v>
+        <v>160</v>
       </c>
       <c r="R53">
-        <v>568</v>
+        <v>49</v>
       </c>
       <c r="S53">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="T53">
-        <v>1181</v>
+        <v>78</v>
       </c>
       <c r="U53">
-        <v>1346</v>
+        <v>113</v>
       </c>
       <c r="V53">
-        <v>8185</v>
+        <v>436</v>
       </c>
       <c r="W53">
-        <v>0.423</v>
+        <v>0.401</v>
       </c>
       <c r="X53">
-        <v>0.3</v>
+        <v>0.188</v>
       </c>
       <c r="Y53">
-        <v>0.824</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="Z53">
-        <v>27.5</v>
+        <v>19</v>
       </c>
       <c r="AA53">
-        <v>12.6</v>
+        <v>7.6</v>
       </c>
       <c r="AB53">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="AC53">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD53" t="s">
         <v>148</v>
@@ -5684,73 +5663,73 @@
         <v>24</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="H54">
-        <v>8274</v>
+        <v>2158</v>
       </c>
       <c r="I54">
-        <v>1368</v>
+        <v>374</v>
       </c>
       <c r="J54">
-        <v>3029</v>
+        <v>871</v>
       </c>
       <c r="K54">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="L54">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="M54">
-        <v>713</v>
+        <v>214</v>
       </c>
       <c r="N54">
-        <v>954</v>
+        <v>288</v>
       </c>
       <c r="O54">
-        <v>392</v>
+        <v>98</v>
       </c>
       <c r="P54">
-        <v>1233</v>
+        <v>358</v>
       </c>
       <c r="Q54">
-        <v>353</v>
+        <v>98</v>
       </c>
       <c r="R54">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="S54">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="T54">
-        <v>424</v>
+        <v>128</v>
       </c>
       <c r="U54">
-        <v>771</v>
+        <v>195</v>
       </c>
       <c r="V54">
-        <v>3527</v>
+        <v>1005</v>
       </c>
       <c r="W54">
-        <v>0.452</v>
+        <v>0.429</v>
       </c>
       <c r="X54">
-        <v>0.293</v>
+        <v>0.331</v>
       </c>
       <c r="Y54">
-        <v>0.747</v>
+        <v>0.743</v>
       </c>
       <c r="Z54">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="AA54">
-        <v>11.9</v>
+        <v>12.7</v>
       </c>
       <c r="AB54">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AC54">
         <v>1.2</v>
@@ -5776,76 +5755,76 @@
         <v>23</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="H55">
-        <v>426</v>
+        <v>48</v>
       </c>
       <c r="I55">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="J55">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="K55">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="N55">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="O55">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="Q55">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
         <v>2</v>
       </c>
-      <c r="T55">
-        <v>19</v>
-      </c>
-      <c r="U55">
+      <c r="V55">
         <v>22</v>
       </c>
-      <c r="V55">
-        <v>211</v>
-      </c>
       <c r="W55">
-        <v>0.423</v>
+        <v>0.364</v>
       </c>
       <c r="X55">
-        <v>0.294</v>
+        <v>0.25</v>
       </c>
       <c r="Y55">
-        <v>0.783</v>
+        <v>0.833</v>
       </c>
       <c r="Z55">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AA55">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AC55">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD55" t="s">
         <v>148</v>
@@ -5960,73 +5939,73 @@
         <v>23</v>
       </c>
       <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>9</v>
+      </c>
+      <c r="H57">
+        <v>71</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>15</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
         <v>2</v>
       </c>
-      <c r="G57">
-        <v>14</v>
-      </c>
-      <c r="H57">
-        <v>169</v>
-      </c>
-      <c r="I57">
+      <c r="N57">
+        <v>5</v>
+      </c>
+      <c r="O57">
+        <v>5</v>
+      </c>
+      <c r="P57">
         <v>12</v>
       </c>
-      <c r="J57">
-        <v>29</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>11</v>
-      </c>
-      <c r="N57">
-        <v>23</v>
-      </c>
-      <c r="O57">
-        <v>13</v>
-      </c>
-      <c r="P57">
-        <v>39</v>
-      </c>
       <c r="Q57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
         <v>7</v>
       </c>
-      <c r="S57">
-        <v>6</v>
-      </c>
-      <c r="T57">
-        <v>15</v>
-      </c>
       <c r="U57">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="V57">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="W57">
-        <v>0.414</v>
+        <v>0.333</v>
       </c>
       <c r="Y57">
-        <v>0.478</v>
+        <v>0.4</v>
       </c>
       <c r="Z57">
-        <v>12.1</v>
+        <v>7.9</v>
       </c>
       <c r="AA57">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="AB57">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="AC57">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD57" t="s">
         <v>148</v>
@@ -6049,76 +6028,76 @@
         <v>23</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>600</v>
+        <v>32</v>
       </c>
       <c r="H58">
-        <v>12093</v>
+        <v>368</v>
       </c>
       <c r="I58">
-        <v>1516</v>
+        <v>43</v>
       </c>
       <c r="J58">
-        <v>3617</v>
+        <v>101</v>
       </c>
       <c r="K58">
-        <v>471</v>
+        <v>9</v>
       </c>
       <c r="L58">
-        <v>1263</v>
+        <v>26</v>
       </c>
       <c r="M58">
-        <v>841</v>
+        <v>23</v>
       </c>
       <c r="N58">
-        <v>1036</v>
+        <v>29</v>
       </c>
       <c r="O58">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="P58">
-        <v>1156</v>
+        <v>32</v>
       </c>
       <c r="Q58">
-        <v>1485</v>
+        <v>35</v>
       </c>
       <c r="R58">
-        <v>559</v>
+        <v>15</v>
       </c>
       <c r="S58">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="T58">
-        <v>650</v>
+        <v>18</v>
       </c>
       <c r="U58">
-        <v>894</v>
+        <v>19</v>
       </c>
       <c r="V58">
-        <v>4344</v>
+        <v>118</v>
       </c>
       <c r="W58">
-        <v>0.419</v>
+        <v>0.426</v>
       </c>
       <c r="X58">
-        <v>0.373</v>
+        <v>0.346</v>
       </c>
       <c r="Y58">
-        <v>0.8120000000000001</v>
+        <v>0.793</v>
       </c>
       <c r="Z58">
-        <v>20.2</v>
+        <v>11.5</v>
       </c>
       <c r="AA58">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="AB58">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="AD58" t="s">
         <v>148</v>
@@ -6141,76 +6120,76 @@
         <v>23</v>
       </c>
       <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>64</v>
+      </c>
+      <c r="H59">
+        <v>269</v>
+      </c>
+      <c r="I59">
+        <v>21</v>
+      </c>
+      <c r="J59">
+        <v>49</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
         <v>4</v>
       </c>
-      <c r="G59">
-        <v>162</v>
-      </c>
-      <c r="H59">
-        <v>796</v>
-      </c>
-      <c r="I59">
-        <v>56</v>
-      </c>
-      <c r="J59">
-        <v>125</v>
-      </c>
-      <c r="K59">
-        <v>2</v>
-      </c>
-      <c r="L59">
-        <v>10</v>
-      </c>
       <c r="M59">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N59">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="O59">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="P59">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="Q59">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="R59">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="S59">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T59">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="U59">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="V59">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="W59">
-        <v>0.448</v>
+        <v>0.429</v>
       </c>
       <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0.654</v>
+      </c>
+      <c r="Z59">
+        <v>4.2</v>
+      </c>
+      <c r="AA59">
+        <v>0.9</v>
+      </c>
+      <c r="AB59">
+        <v>0.8</v>
+      </c>
+      <c r="AC59">
         <v>0.2</v>
-      </c>
-      <c r="Y59">
-        <v>0.5629999999999999</v>
-      </c>
-      <c r="Z59">
-        <v>4.9</v>
-      </c>
-      <c r="AA59">
-        <v>1</v>
-      </c>
-      <c r="AB59">
-        <v>0.9</v>
-      </c>
-      <c r="AC59">
-        <v>0.3</v>
       </c>
       <c r="AD59" t="s">
         <v>148</v>
@@ -6233,19 +6212,19 @@
         <v>21</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H60">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J60">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -6278,25 +6257,25 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V60">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="W60">
-        <v>0.318</v>
+        <v>0.25</v>
       </c>
       <c r="Z60">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AA60">
+        <v>0.9</v>
+      </c>
+      <c r="AB60">
         <v>1.1</v>
       </c>
-      <c r="AB60">
-        <v>0.9</v>
-      </c>
       <c r="AC60">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD60" t="s">
         <v>148</v>
@@ -6319,76 +6298,73 @@
         <v>21</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="H61">
-        <v>1978</v>
+        <v>1278</v>
       </c>
       <c r="I61">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="J61">
-        <v>448</v>
+        <v>305</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="N61">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="O61">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="P61">
-        <v>472</v>
+        <v>322</v>
       </c>
       <c r="Q61">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="R61">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="S61">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="T61">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="U61">
-        <v>324</v>
+        <v>193</v>
       </c>
       <c r="V61">
-        <v>581</v>
+        <v>409</v>
       </c>
       <c r="W61">
-        <v>0.511</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
+        <v>0.538</v>
       </c>
       <c r="Y61">
-        <v>0.624</v>
+        <v>0.609</v>
       </c>
       <c r="Z61">
-        <v>14.4</v>
+        <v>17.5</v>
       </c>
       <c r="AA61">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="AB61">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="AC61">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD61" t="s">
         <v>148</v>
@@ -6411,76 +6387,73 @@
         <v>20</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>428</v>
+        <v>38</v>
       </c>
       <c r="H62">
-        <v>6949</v>
+        <v>376</v>
       </c>
       <c r="I62">
-        <v>1271</v>
+        <v>62</v>
       </c>
       <c r="J62">
-        <v>2095</v>
+        <v>112</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>434</v>
+        <v>27</v>
       </c>
       <c r="N62">
-        <v>644</v>
+        <v>40</v>
       </c>
       <c r="O62">
-        <v>586</v>
+        <v>38</v>
       </c>
       <c r="P62">
-        <v>1560</v>
+        <v>99</v>
       </c>
       <c r="Q62">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="R62">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="S62">
-        <v>425</v>
+        <v>22</v>
       </c>
       <c r="T62">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="U62">
-        <v>574</v>
+        <v>36</v>
       </c>
       <c r="V62">
-        <v>2976</v>
+        <v>151</v>
       </c>
       <c r="W62">
-        <v>0.607</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
+        <v>0.554</v>
       </c>
       <c r="Y62">
-        <v>0.674</v>
+        <v>0.675</v>
       </c>
       <c r="Z62">
-        <v>16.2</v>
+        <v>9.9</v>
       </c>
       <c r="AA62">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB62">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="AC62">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD62" t="s">
         <v>148</v>
@@ -6503,76 +6476,76 @@
         <v>20</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="H63">
-        <v>3049</v>
+        <v>640</v>
       </c>
       <c r="I63">
-        <v>397</v>
+        <v>90</v>
       </c>
       <c r="J63">
-        <v>795</v>
+        <v>169</v>
       </c>
       <c r="K63">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L63">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="N63">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="O63">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="P63">
-        <v>531</v>
+        <v>117</v>
       </c>
       <c r="Q63">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="R63">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="S63">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="T63">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="U63">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="V63">
-        <v>907</v>
+        <v>223</v>
       </c>
       <c r="W63">
-        <v>0.499</v>
+        <v>0.533</v>
       </c>
       <c r="X63">
-        <v>0.262</v>
+        <v>0.417</v>
       </c>
       <c r="Y63">
-        <v>0.584</v>
+        <v>0.635</v>
       </c>
       <c r="Z63">
-        <v>13.2</v>
+        <v>11.2</v>
       </c>
       <c r="AA63">
         <v>3.9</v>
       </c>
       <c r="AB63">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AC63">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD63" t="s">
         <v>148</v>
@@ -6595,76 +6568,76 @@
         <v>22</v>
       </c>
       <c r="F64">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>720</v>
+        <v>75</v>
       </c>
       <c r="H64">
-        <v>16419</v>
+        <v>1158</v>
       </c>
       <c r="I64">
-        <v>2894</v>
+        <v>210</v>
       </c>
       <c r="J64">
-        <v>6920</v>
+        <v>478</v>
       </c>
       <c r="K64">
-        <v>1039</v>
+        <v>40</v>
       </c>
       <c r="L64">
-        <v>2764</v>
+        <v>100</v>
       </c>
       <c r="M64">
-        <v>1367</v>
+        <v>101</v>
       </c>
       <c r="N64">
-        <v>1636</v>
+        <v>124</v>
       </c>
       <c r="O64">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="P64">
-        <v>1427</v>
+        <v>115</v>
       </c>
       <c r="Q64">
-        <v>687</v>
+        <v>63</v>
       </c>
       <c r="R64">
-        <v>394</v>
+        <v>35</v>
       </c>
       <c r="S64">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="T64">
-        <v>711</v>
+        <v>94</v>
       </c>
       <c r="U64">
-        <v>1316</v>
+        <v>130</v>
       </c>
       <c r="V64">
-        <v>8194</v>
+        <v>561</v>
       </c>
       <c r="W64">
-        <v>0.418</v>
+        <v>0.439</v>
       </c>
       <c r="X64">
-        <v>0.376</v>
+        <v>0.4</v>
       </c>
       <c r="Y64">
-        <v>0.836</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="Z64">
-        <v>22.8</v>
+        <v>15.4</v>
       </c>
       <c r="AA64">
-        <v>11.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB64">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AC64">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD64" t="s">
         <v>148</v>
@@ -6687,76 +6660,76 @@
         <v>19</v>
       </c>
       <c r="F65">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>965</v>
+        <v>74</v>
       </c>
       <c r="H65">
-        <v>29281</v>
+        <v>1554</v>
       </c>
       <c r="I65">
-        <v>5459</v>
+        <v>264</v>
       </c>
       <c r="J65">
-        <v>10962</v>
+        <v>490</v>
       </c>
       <c r="K65">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="L65">
-        <v>1459</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>1299</v>
+        <v>76</v>
       </c>
       <c r="N65">
-        <v>1940</v>
+        <v>103</v>
       </c>
       <c r="O65">
-        <v>1931</v>
+        <v>120</v>
       </c>
       <c r="P65">
-        <v>5714</v>
+        <v>312</v>
       </c>
       <c r="Q65">
-        <v>1607</v>
+        <v>58</v>
       </c>
       <c r="R65">
-        <v>1407</v>
+        <v>73</v>
       </c>
       <c r="S65">
-        <v>390</v>
+        <v>8</v>
       </c>
       <c r="T65">
-        <v>1395</v>
+        <v>64</v>
       </c>
       <c r="U65">
-        <v>2116</v>
+        <v>126</v>
       </c>
       <c r="V65">
-        <v>12703</v>
+        <v>610</v>
       </c>
       <c r="W65">
-        <v>0.498</v>
+        <v>0.539</v>
       </c>
       <c r="X65">
-        <v>0.333</v>
+        <v>0.316</v>
       </c>
       <c r="Y65">
-        <v>0.67</v>
+        <v>0.738</v>
       </c>
       <c r="Z65">
-        <v>30.3</v>
+        <v>21</v>
       </c>
       <c r="AA65">
-        <v>13.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB65">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="AC65">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD65" t="s">
         <v>148</v>
